--- a/Resultados/Mercado mundial - Higos.xlsx
+++ b/Resultados/Mercado mundial - Higos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Türkiye" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Egypt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Morocco" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Algeria" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Iran (Islamic Republic of)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Marruecos" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argelia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,18 +488,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Producción (Miles de Toneladas)</a:t>
+              <a:t>Producción (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -558,7 +557,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egypt'!$B$12:$B$73</f>
+              <f>'Egipto'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egypt'!$C$12:$C$73</f>
+              <f>'Egipto'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Morocco'!$B$12:$B$73</f>
+              <f>'Marruecos'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Morocco'!$C$12:$C$73</f>
+              <f>'Marruecos'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Algeria'!$B$12:$B$73</f>
+              <f>'Argelia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Algeria'!$C$12:$C$73</f>
+              <f>'Argelia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$B$12:$B$73</f>
+              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$C$12:$C$73</f>
+              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>299768</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4.3529</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1304848.57</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4.3529</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>97209.36</v>
@@ -2161,10 +2160,10 @@
         <v>299290</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.3205</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1293092.29</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4.3205</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>88181.75999999999</v>
@@ -2183,10 +2182,10 @@
         <v>293861</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4.498600000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1321976.01</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4.498600000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>89756.73</v>
@@ -2205,10 +2204,10 @@
         <v>287279</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4.8531</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1394187.92</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4.8531</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>90368.61</v>
@@ -2227,10 +2226,10 @@
         <v>287056</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4.617100000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1325376.16</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4.617100000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>72445.83</v>
@@ -2249,10 +2248,10 @@
         <v>290451</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.2685</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1239791.48</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4.2685</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>63553.35</v>
@@ -2271,10 +2270,10 @@
         <v>277623</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4.2332</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1175233.77</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4.2332</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>64700.64</v>
@@ -2293,10 +2292,10 @@
         <v>277830</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3.8796</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1077869.56</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3.8796</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>61479.31</v>
@@ -2315,10 +2314,10 @@
         <v>294387</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3.9714</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1169130.23</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3.9714</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>52868.72</v>
@@ -2337,10 +2336,10 @@
         <v>312022</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3.6873</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1150513.57</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3.6873</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>61610.9</v>
@@ -2359,10 +2358,10 @@
         <v>314795</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1132330.27</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3.597</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>53420</v>
@@ -2381,10 +2380,10 @@
         <v>307205</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3.4424</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1057517.8</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3.4424</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>43873</v>
@@ -2403,10 +2402,10 @@
         <v>309166</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3.4496</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1066508.2</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3.4496</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>38667</v>
@@ -2425,10 +2424,10 @@
         <v>308199</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1065430.51</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3.457</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>36004</v>
@@ -2447,10 +2446,10 @@
         <v>301887</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3.7849</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1142611.73</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3.7849</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>33696</v>
@@ -2469,10 +2468,10 @@
         <v>294345</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3.585</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1055223.2</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3.585</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>29291</v>
@@ -2491,10 +2490,10 @@
         <v>351270</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.9099</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1022165.86</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.9099</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>27052</v>
@@ -2513,10 +2512,10 @@
         <v>342391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3.4522</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1181996.94</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3.4522</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>29155</v>
@@ -2535,10 +2534,10 @@
         <v>312822</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3.4869</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1090790.81</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3.4869</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>29838</v>
@@ -2557,10 +2556,10 @@
         <v>306011</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3.3182</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1015397.24</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3.3182</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>32520</v>
@@ -2579,10 +2578,10 @@
         <v>304298</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3.2636</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>993106.11</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3.2636</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>32237</v>
@@ -2601,10 +2600,10 @@
         <v>299170</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3.4348</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1027594.41</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3.4348</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>30693</v>
@@ -2623,10 +2622,10 @@
         <v>302577</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3.0654</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>927503.99</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3.0654</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>30058.9</v>
@@ -2645,10 +2644,10 @@
         <v>277903</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3.5877</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>997044.49</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3.5877</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>28206.21</v>
@@ -2667,10 +2666,10 @@
         <v>304484</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.6197</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1102137.71</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.6197</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25999.51</v>
@@ -2689,10 +2688,10 @@
         <v>308450</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.4401</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1061109.29</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.4401</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>20854.97</v>
@@ -2711,10 +2710,10 @@
         <v>300818</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.4571</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1039951.77</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.4571</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>25114.81</v>
@@ -2733,10 +2732,10 @@
         <v>299509</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.5273</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1056463.57</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.5273</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>19841</v>
@@ -2755,10 +2754,10 @@
         <v>290161</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.8494</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1116953.29</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.8494</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18137</v>
@@ -2777,10 +2776,10 @@
         <v>300761</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3.5337</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1062810.21</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3.5337</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>17092</v>
@@ -2799,10 +2798,10 @@
         <v>300081</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.4788</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1043920.37</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.4788</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>15288</v>
@@ -2821,10 +2820,10 @@
         <v>328785</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.2758</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1077047.1</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.2758</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11460</v>
@@ -2843,10 +2842,10 @@
         <v>336531</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.0176</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1015528.66</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.0176</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9994</v>
@@ -2865,10 +2864,10 @@
         <v>402583</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.6838</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1080449</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.6838</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>9299</v>
@@ -2887,10 +2886,10 @@
         <v>395274</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.4854</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>982412</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.4854</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>9912</v>
@@ -2909,10 +2908,10 @@
         <v>387935</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.6469</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1026840</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.6469</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>8099</v>
@@ -2931,10 +2930,10 @@
         <v>390058</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.6925</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1050224</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.6925</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4548</v>
@@ -2953,10 +2952,10 @@
         <v>387433</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.8111</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1089094</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.8111</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4039</v>
@@ -2975,10 +2974,10 @@
         <v>380024</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.6797</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1018362</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.6797</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3695</v>
@@ -2997,10 +2996,10 @@
         <v>285536</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.3594</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>959221</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.3594</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>12826</v>
@@ -3019,10 +3018,10 @@
         <v>293594</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.3561</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>985327</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.3561</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>10205</v>
@@ -3041,10 +3040,10 @@
         <v>262250</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.5803</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>938925</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.5803</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3052</v>
@@ -3063,10 +3062,10 @@
         <v>290607</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.3089</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>961590</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.3089</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3208</v>
@@ -3085,10 +3084,10 @@
         <v>302348</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>928805</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.072</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3637</v>
@@ -3107,10 +3106,10 @@
         <v>304274</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.0703</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>934222</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.0703</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2063</v>
@@ -3129,10 +3128,10 @@
         <v>301529</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.8545</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>860717</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.8545</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2868</v>
@@ -3151,10 +3150,10 @@
         <v>306319</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.9054</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>889991</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.9054</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2968</v>
@@ -3173,10 +3172,10 @@
         <v>315447</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3.0961</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>976656</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3.0961</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1928</v>
@@ -3195,10 +3194,10 @@
         <v>326953</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.1411</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1027001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.1411</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1471</v>
@@ -3217,10 +3216,10 @@
         <v>320478</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.1221</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1000552</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.1221</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>933</v>
@@ -3239,10 +3238,10 @@
         <v>319074</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3.0026</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>958040</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3.0026</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1366</v>
@@ -3261,10 +3260,10 @@
         <v>412758</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.5447</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1050334</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.5447</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>998</v>
@@ -3283,10 +3282,10 @@
         <v>420933</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.7408</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1153694</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.7408</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>626</v>
@@ -3305,10 +3304,10 @@
         <v>427521</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.7459</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1173936</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.7459</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>563</v>
@@ -3327,10 +3326,10 @@
         <v>424238</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.8068</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1190766</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.8068</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>459</v>
@@ -3349,10 +3348,10 @@
         <v>451298</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1242882</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.754</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>413</v>
@@ -3371,10 +3370,10 @@
         <v>460404</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.6863</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1236798</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.6863</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>465</v>
@@ -3392,10 +3391,10 @@
         <v>469765</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.7025</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1269547</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.7025</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>552</v>
@@ -3413,10 +3412,10 @@
         <v>575183</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.6184</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1506049</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.6184</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>326</v>
@@ -3434,10 +3433,10 @@
         <v>592176</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.6979</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1597659</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.6979</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>351</v>
@@ -3455,10 +3454,10 @@
         <v>605163</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.5286</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1530193</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.5286</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>327</v>
@@ -3476,10 +3475,10 @@
         <v>619544</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.4843</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1539143</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.4843</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>222</v>
@@ -3497,10 +3496,10 @@
         <v>622157</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.5272</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1572296</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.5272</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>160</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>República Árabe Siria</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>12489.34</v>
+        <v>249476.21</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.009571486138042823</v>
+        <v>0.1911916951405326</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>236986.8699999999</v>
+        <v>1304848.57</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1816202090024897</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>1304848.57</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4225,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4295,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4309,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4323,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4337,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4671,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4685,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4699,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suiza</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4755,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4783,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>6</v>
+        <v>22102.41000000002</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>6.172245141825849e-05</v>
+        <v>0.2273691545752386</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>22096.41000000002</v>
+        <v>97209.36</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2273074321238203</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>97209.36</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4829,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>57459</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.1957</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>356000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.1957</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="inlineStr"/>
@@ -5048,10 +5029,10 @@
         <v>57247</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.113899999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.113899999999999</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -5066,10 +5047,10 @@
         <v>54698</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.8503</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>320000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.8503</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -5084,10 +5065,10 @@
         <v>53694</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.9597</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>320000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.9597</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -5102,10 +5083,10 @@
         <v>52116</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.948300000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>310000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.948300000000001</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -5120,10 +5101,10 @@
         <v>51389</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.964300000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>306499</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.964300000000001</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -5138,10 +5119,10 @@
         <v>50330</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.0737</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>305689</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.0737</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -5156,10 +5137,10 @@
         <v>49987</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.110600000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>305450</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.110600000000001</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -5174,10 +5155,10 @@
         <v>49718</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.0461</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>300600</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.0461</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -5192,10 +5173,10 @@
         <v>49464</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.0707</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>300282</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.0707</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -5210,10 +5191,10 @@
         <v>49401</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.050800000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>298914</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.050800000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5232,10 +5213,10 @@
         <v>49175</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.5923</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>275002</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.5923</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5254,10 +5235,10 @@
         <v>48530</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.368</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>260508</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.368</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5276,10 +5257,10 @@
         <v>47857</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>254838</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.325</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5298,10 +5279,10 @@
         <v>47662</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.1267</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>244351</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.1267</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5320,10 +5301,10 @@
         <v>47449</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.321800000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>205067</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.321800000000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5342,10 +5323,10 @@
         <v>51018</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4.1192</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>210152</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>4.1192</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5364,10 +5345,10 @@
         <v>48391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.996</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>290151</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.996</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5386,10 +5367,10 @@
         <v>49000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.8163</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>285000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.8163</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5408,10 +5389,10 @@
         <v>50500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.4455</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.4455</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5430,10 +5411,10 @@
         <v>51300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.4581</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.4581</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5452,10 +5433,10 @@
         <v>50200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.9801</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.9801</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5474,10 +5455,10 @@
         <v>50600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.6443</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>235000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.6443</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5496,10 +5477,10 @@
         <v>48300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.9689</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.9689</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5518,10 +5499,10 @@
         <v>47148</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.8327</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5.8327</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>12</v>
@@ -5540,10 +5521,10 @@
         <v>47026</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.4225</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>255000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5.4225</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5562,10 +5543,10 @@
         <v>46502</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5.2256</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>243000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5.2256</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>45</v>
@@ -5584,10 +5565,10 @@
         <v>48456</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.9848</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5.9848</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5606,10 +5587,10 @@
         <v>48993</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6.1233</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6.1233</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5628,10 +5609,10 @@
         <v>48967</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5.6977</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>279000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5.6977</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>20</v>
@@ -5650,10 +5631,10 @@
         <v>48827</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.5297</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.5297</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5672,10 +5653,10 @@
         <v>59875</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4.1754</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4.1754</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5694,10 +5675,10 @@
         <v>60406</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.1982</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>314000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5.1982</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5716,10 +5697,10 @@
         <v>60338</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.972</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.972</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5738,10 +5719,10 @@
         <v>57725</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>4.8333</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>279000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>4.8333</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5760,10 +5741,10 @@
         <v>57188</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.1202</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6.1202</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5782,10 +5763,10 @@
         <v>56188</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.3181</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>355000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6.3181</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>50</v>
@@ -5804,10 +5785,10 @@
         <v>54250</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.8203</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>370000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6.8203</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5826,10 +5807,10 @@
         <v>50750</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.6995</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.6995</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5848,10 +5829,10 @@
         <v>46875</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>330000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.04</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5870,10 +5851,10 @@
         <v>44438</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7.4261</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>330000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7.4261</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5892,10 +5873,10 @@
         <v>40000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5914,10 +5895,10 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5936,10 +5917,10 @@
         <v>36875</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.5593</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>205000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5.5593</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5958,10 +5939,10 @@
         <v>35625</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.614</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.614</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5980,10 +5961,10 @@
         <v>35000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.285699999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>185000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.285699999999999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6002,10 +5983,10 @@
         <v>34375</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.0909</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.0909</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6024,10 +6005,10 @@
         <v>36875</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.0983</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>188000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.0983</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6046,10 +6027,10 @@
         <v>36250</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.8276</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.8276</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6068,10 +6049,10 @@
         <v>36875</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>156350</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4.24</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6090,10 +6071,10 @@
         <v>36875</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.1525</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>190000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5.1525</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6112,10 +6093,10 @@
         <v>36794</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.8705</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>216000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.8705</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6134,10 +6115,10 @@
         <v>37225</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.2384</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>195000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5.2384</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6156,10 +6137,10 @@
         <v>38206</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.6012</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>214000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.6012</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6178,10 +6159,10 @@
         <v>36206</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.9382</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.9382</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6200,10 +6181,10 @@
         <v>34981</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6.146199999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6.146199999999999</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6222,10 +6203,10 @@
         <v>41206</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.630199999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>232000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.630199999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6224,10 @@
         <v>41250</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5.2121</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5.2121</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6245,10 @@
         <v>40938</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.1297</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>210000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.1297</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6266,10 @@
         <v>40813</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.0474</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>206000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.0474</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6287,10 @@
         <v>40694</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.116</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>208190</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.116</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6308,10 @@
         <v>40525</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.183</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>210040</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.183</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6329,10 @@
         <v>41619</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.894399999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>203700</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.894399999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6687,7 +6668,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6766,10 +6747,10 @@
         <v>28667</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.7345</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>193057.96</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.7345</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -6786,10 +6767,10 @@
         <v>30080</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.8693</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>206626</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.8693</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6806,10 +6787,10 @@
         <v>29713</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7.1159</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>211438</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7.1159</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6826,10 +6807,10 @@
         <v>35750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8.376200000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>299450</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8.376200000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6846,10 +6827,10 @@
         <v>26931</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>215450</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>8</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6866,10 +6847,10 @@
         <v>29029</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.6258</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>221369</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.6258</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6886,10 +6867,10 @@
         <v>27820</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.980600000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>194202</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.980600000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>53.52</v>
@@ -6908,10 +6889,10 @@
         <v>27779</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.6163</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>183794</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.6163</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>94.09</v>
@@ -6930,10 +6911,10 @@
         <v>27881</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.186100000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>172474</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.186100000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>15</v>
@@ -6952,10 +6933,10 @@
         <v>28501</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.1789</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>176105</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.1789</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6972,10 +6953,10 @@
         <v>28884</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.113899999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>176595</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.113899999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>25</v>
@@ -6994,10 +6975,10 @@
         <v>28716</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>171062</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.957</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1000</v>
@@ -7016,10 +6997,10 @@
         <v>28479</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.8107</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>165483</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.8107</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>33</v>
@@ -7038,10 +7019,10 @@
         <v>31773</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.8217</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>184972</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.8217</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7060,10 +7041,10 @@
         <v>31960</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>286682</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8.970000000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7082,10 +7063,10 @@
         <v>32818</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.2666</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>304110</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.2666</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7104,10 +7085,10 @@
         <v>76258</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3.4397</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>262307</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3.4397</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>304</v>
@@ -7126,10 +7107,10 @@
         <v>73320</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4.0304</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>295510</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4.0304</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>393</v>
@@ -7148,10 +7129,10 @@
         <v>28580</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.7267</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>192250</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6.7267</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>285</v>
@@ -7170,10 +7151,10 @@
         <v>27521</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.8182</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>160124</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.8182</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>408</v>
@@ -7192,10 +7173,10 @@
         <v>25550</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.3164</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>135834</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.3164</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>220</v>
@@ -7214,10 +7195,10 @@
         <v>26444</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7.3601</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>194631</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7.3601</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>363</v>
@@ -7236,10 +7217,10 @@
         <v>29105</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5.160600000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>150200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>5.160600000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>400</v>
@@ -7258,10 +7239,10 @@
         <v>22200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.4549</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>187698</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8.4549</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1088.61</v>
@@ -7280,10 +7261,10 @@
         <v>25316</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.018800000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>203005</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.018800000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>452</v>
@@ -7302,10 +7283,10 @@
         <v>23789</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.283700000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>220849</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.283700000000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>120</v>
@@ -7324,10 +7305,10 @@
         <v>24453</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.8574</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>216589</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.8574</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>174</v>
@@ -7346,10 +7327,10 @@
         <v>22853</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.8696</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>202697</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.8696</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -7368,10 +7349,10 @@
         <v>18187</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.0266</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>236915</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.0266</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18</v>
@@ -7390,10 +7371,10 @@
         <v>18100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.1657</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>184000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.1657</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>36</v>
@@ -7412,10 +7393,10 @@
         <v>18000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>160000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7434,10 +7415,10 @@
         <v>17595</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.716899999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>153373</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.716899999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7456,10 +7437,10 @@
         <v>13635</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.2133</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>71083</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5.2133</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7478,10 +7459,10 @@
         <v>13361</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.0987</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>81485</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.0987</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7500,10 +7481,10 @@
         <v>13862</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.8134</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>39000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.8134</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7522,10 +7503,10 @@
         <v>10922</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.8383</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>31000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.8383</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7544,10 +7525,10 @@
         <v>8820</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.8345</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>25000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.8345</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7566,10 +7547,10 @@
         <v>8400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>24000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.8571</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7588,10 +7569,10 @@
         <v>1700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5.8824</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5.8824</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7610,10 +7591,10 @@
         <v>1680</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5.3571</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5.3571</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7632,10 +7613,10 @@
         <v>1680</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.3571</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5.3571</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1482</v>
@@ -7654,10 +7635,10 @@
         <v>2065</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9.083299999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18757</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9.083299999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>851</v>
@@ -7676,10 +7657,10 @@
         <v>2243</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.786899999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10737</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.786899999999999</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1055</v>
@@ -7698,10 +7679,10 @@
         <v>3572</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.0795</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.0795</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1958</v>
@@ -7720,10 +7701,10 @@
         <v>2998</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.4066</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>16209</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.4066</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>758</v>
@@ -7742,10 +7723,10 @@
         <v>3052</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.5098</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13764</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.5098</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1327</v>
@@ -7764,10 +7745,10 @@
         <v>3060</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.6229</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14146</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.6229</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1735</v>
@@ -7786,10 +7767,10 @@
         <v>3072</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4.6413</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14258</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4.6413</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>317</v>
@@ -7808,10 +7789,10 @@
         <v>2941</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5.1003</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5.1003</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7830,10 +7811,10 @@
         <v>2941</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.3723</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15800</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.3723</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7852,10 +7833,10 @@
         <v>2940</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.7619</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7874,10 +7855,10 @@
         <v>2940</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4.7619</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7896,10 +7877,10 @@
         <v>2940</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.138100000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15106</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5.138100000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7918,10 +7899,10 @@
         <v>2941</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.7603</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.7603</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7940,10 +7921,10 @@
         <v>4621</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.3804</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.3804</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7962,10 +7943,10 @@
         <v>4261</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.3469</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.3469</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7984,10 +7965,10 @@
         <v>840</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.381</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8005,10 +7986,10 @@
         <v>840</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.5714</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.5714</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8026,10 +8007,10 @@
         <v>843</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.096100000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4296</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.096100000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8047,10 +8028,10 @@
         <v>843</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.1922</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1848</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.1922</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8068,10 +8049,10 @@
         <v>779</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.932</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6179</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.932</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8089,10 +8070,10 @@
         <v>776</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.0863</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4723</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.0863</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8110,10 +8091,10 @@
         <v>574</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.3345</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5358</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.3345</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8449,7 +8430,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8528,10 +8509,10 @@
         <v>69737</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.7088</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>119166.59</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.7088</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.67</v>
@@ -8550,10 +8531,10 @@
         <v>66532</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.6476</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>109619.8</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.6476</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8570,10 +8551,10 @@
         <v>64431</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.2373</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>144153</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.2373</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.51</v>
@@ -8592,10 +8573,10 @@
         <v>63131</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.2849</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>144246.05</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.2849</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15.52</v>
@@ -8614,10 +8595,10 @@
         <v>62969</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.4373</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>153471.57</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.4373</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.19</v>
@@ -8636,10 +8617,10 @@
         <v>61498</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.0876</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>128380.05</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.0876</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.06</v>
@@ -8658,10 +8639,10 @@
         <v>60533</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.2786</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>137933.82</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.2786</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0</v>
@@ -8680,10 +8661,10 @@
         <v>58306</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>59881.15</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.027</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.04</v>
@@ -8702,10 +8683,10 @@
         <v>55260</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.7165</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>150110.82</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.7165</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8722,10 +8703,10 @@
         <v>54771</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.3106</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>126553.56</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.3106</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.01</v>
@@ -8744,10 +8725,10 @@
         <v>55020</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.0454</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>112537.36</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.0454</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8764,10 +8745,10 @@
         <v>51020</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.0128</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>102694</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.0128</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8784,10 +8765,10 @@
         <v>51449</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.2308</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>114770</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.2308</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8804,10 +8785,10 @@
         <v>49682</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.2087</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>109735</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.2087</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8824,10 +8805,10 @@
         <v>47600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.2941</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>109200</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.2941</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8844,10 +8825,10 @@
         <v>42381</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.6451</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>69723</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.6451</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8864,10 +8845,10 @@
         <v>44441</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.3862</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>61606</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.3862</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8884,10 +8865,10 @@
         <v>44000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>77000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.75</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8904,10 +8885,10 @@
         <v>43800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.8858</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>82600</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.8858</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8924,10 +8905,10 @@
         <v>42700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.4052</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.4052</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8944,10 +8925,10 @@
         <v>42800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5654</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>67000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5654</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8964,10 +8945,10 @@
         <v>43200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.2569</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>97500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.2569</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -8984,10 +8965,10 @@
         <v>43400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.7419</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>75600</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.7419</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -9004,10 +8985,10 @@
         <v>43900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.5581</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>68400</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.5581</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -9024,10 +9005,10 @@
         <v>44600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.8386</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>82000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.8386</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -9044,10 +9025,10 @@
         <v>42000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.3262</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>55700</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.3262</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -9064,10 +9045,10 @@
         <v>42000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>51200</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.219</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -9084,10 +9065,10 @@
         <v>44100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.9161</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>40400</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.9161</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -9104,10 +9085,10 @@
         <v>42000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.5952</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>67000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.5952</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -9124,10 +9105,10 @@
         <v>40000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>65000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.625</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -9142,10 +9123,10 @@
         <v>40000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.25</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9162,10 +9143,10 @@
         <v>40000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>45000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.125</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9182,10 +9163,10 @@
         <v>40000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.5</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9202,10 +9183,10 @@
         <v>39000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.4923</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>58200</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.4923</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9222,10 +9203,10 @@
         <v>38000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.4974</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>56900</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.4974</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9242,10 +9223,10 @@
         <v>30000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>55500</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.85</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9262,10 +9243,10 @@
         <v>30000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>54300</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.81</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9282,10 +9263,10 @@
         <v>29500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.2373</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>66000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.2373</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9302,10 +9283,10 @@
         <v>32000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>72000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.25</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9319,10 +9300,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
         <v>70000</v>
       </c>
-      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
         <v>0</v>
@@ -9335,10 +9316,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
         <v>0</v>
@@ -9351,10 +9332,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
         <v>0</v>
@@ -9367,10 +9348,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
         <v>66000</v>
       </c>
-      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
         <v>4</v>
@@ -9383,10 +9364,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
         <v>0</v>
@@ -9399,10 +9380,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>2</v>
@@ -9415,10 +9396,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>9</v>
@@ -9431,10 +9412,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>68000</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>6</v>
@@ -9447,10 +9428,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>69300</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>11</v>
@@ -9463,10 +9444,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>69000</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>11</v>
@@ -9479,10 +9460,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>5</v>
@@ -9495,10 +9476,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>10</v>
@@ -9511,10 +9492,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>10</v>
@@ -9527,10 +9508,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>3</v>
@@ -9543,10 +9524,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>15</v>
@@ -9559,10 +9540,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>67</v>
@@ -9575,10 +9556,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>4</v>
@@ -9591,10 +9572,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>6</v>
@@ -9606,10 +9587,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>0</v>
@@ -9621,10 +9602,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
         <v>79000</v>
       </c>
-      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>3</v>
@@ -9636,10 +9617,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>96000</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>4</v>
@@ -9651,10 +9632,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>61000</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>3</v>
@@ -9666,10 +9647,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>66000</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>1</v>
@@ -9681,10 +9662,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>77000</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>13</v>
@@ -10017,7 +9998,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10096,10 +10077,10 @@
         <v>38374</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.0277</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>116183.18</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.0277</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.23</v>
@@ -10118,10 +10099,10 @@
         <v>40136</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.8695</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>115170.35</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.8695</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10138,10 +10119,10 @@
         <v>39065</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.7459</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>107266</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.7459</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10158,10 +10139,10 @@
         <v>39026</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>116143</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.976</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10178,10 +10159,10 @@
         <v>39438</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.8929</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>114092</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.8929</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>52</v>
@@ -10200,10 +10181,10 @@
         <v>39356</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>109213.6</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.775</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -10220,10 +10201,10 @@
         <v>40932</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.1438</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>128684</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.1438</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10240,10 +10221,10 @@
         <v>42764</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.8142</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>120348</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.8142</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10260,10 +10241,10 @@
         <v>43130</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>139137</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3.226</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10280,10 +10261,10 @@
         <v>44395</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.8972</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>128620</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.8972</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10300,10 +10281,10 @@
         <v>44608</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.6251</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>117100</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.6251</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -10322,10 +10303,10 @@
         <v>45125</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>110058</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.439</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10344,10 +10325,10 @@
         <v>46331</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.5941</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>120187</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.5941</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10366,10 +10347,10 @@
         <v>46921</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.6377</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>123763</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.6377</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10388,10 +10369,10 @@
         <v>46935</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.7855</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>83801</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.7855</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10410,10 +10391,10 @@
         <v>47273</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.6655</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>78735</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.6655</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10432,10 +10413,10 @@
         <v>48790</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.3093</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>63883</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.3093</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10454,10 +10435,10 @@
         <v>49180</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.8692</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>91927</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.8692</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10476,10 +10457,10 @@
         <v>46592</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.4981</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>69799</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.4981</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10498,10 +10479,10 @@
         <v>45920</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.4142</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>64940</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.4142</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10520,10 +10501,10 @@
         <v>44030</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.4369</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>63266</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.4369</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10542,10 +10523,10 @@
         <v>39830</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.5238</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>60694</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.5238</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>15</v>
@@ -10564,10 +10545,10 @@
         <v>38070</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.0734</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>40864</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.0734</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10586,10 +10567,10 @@
         <v>36000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.5091</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>54326</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.5091</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10608,10 +10589,10 @@
         <v>35730</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.4164</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>50609</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.4164</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10630,10 +10611,10 @@
         <v>35390</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.1927</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>42209</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.1927</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10652,10 +10633,10 @@
         <v>35980</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.2992</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>46747</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.2992</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>75</v>
@@ -10674,10 +10655,10 @@
         <v>36760</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.5506</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>57000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.5506</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10694,10 +10675,10 @@
         <v>40110</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.4961</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>60008</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.4961</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10714,10 +10695,10 @@
         <v>41900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.0915</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>45732</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.0915</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10734,10 +10715,10 @@
         <v>42030</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.0275</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>85215</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.0275</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10754,10 +10735,10 @@
         <v>41200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.0977</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>86424</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.0977</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10774,10 +10755,10 @@
         <v>44370</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.9334</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>41414</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.9334</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10794,10 +10775,10 @@
         <v>44700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.3063</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>58390</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.3063</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10814,10 +10795,10 @@
         <v>36000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.9533</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>70320</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.9533</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10834,10 +10815,10 @@
         <v>36000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.3389</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>48200</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.3389</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10854,10 +10835,10 @@
         <v>38000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.5342</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>58300</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.5342</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10874,10 +10855,10 @@
         <v>38000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.8871</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>71708</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.8871</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10894,10 +10875,10 @@
         <v>38000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.5569</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>59164</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.5569</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10914,10 +10895,10 @@
         <v>18000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.5389</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>27700</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.5389</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10934,10 +10915,10 @@
         <v>30000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.5016</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>45049</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.5016</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10954,10 +10935,10 @@
         <v>19000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.5004</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>28508</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.5004</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -10974,10 +10955,10 @@
         <v>47000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.5019</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>70589</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.5019</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -10994,10 +10975,10 @@
         <v>46000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.5089</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>69410</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.5089</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11014,10 +10995,10 @@
         <v>51000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>86596</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.698</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11034,10 +11015,10 @@
         <v>46000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.5073</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>69338</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.5073</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11054,10 +11035,10 @@
         <v>51000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.5067</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>76840</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.5067</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11074,10 +11055,10 @@
         <v>53000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.5025</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>79630</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.5025</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11094,10 +11075,10 @@
         <v>63000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>95385</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.514</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11114,10 +11095,10 @@
         <v>50000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>74902</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.498</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11134,10 +11115,10 @@
         <v>48000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.4911</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>71571</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.4911</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11154,10 +11135,10 @@
         <v>41000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>62360</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.521</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11174,10 +11155,10 @@
         <v>34000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>51136</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.504</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11194,10 +11175,10 @@
         <v>33000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.5276</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>50411</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.5276</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11214,10 +11195,10 @@
         <v>14000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.5236</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>21331</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.5236</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11234,10 +11215,10 @@
         <v>29000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.5418</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>44713</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.5418</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11254,10 +11235,10 @@
         <v>29000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>44195</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.524</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11273,10 +11254,10 @@
         <v>31000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.4861</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>46069</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.4861</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11292,10 +11273,10 @@
         <v>29000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.4828</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>43000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.4828</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11311,10 +11292,10 @@
         <v>39000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.4872</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>58000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.4872</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11330,10 +11311,10 @@
         <v>39000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.5128</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>59000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.5128</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11349,10 +11330,10 @@
         <v>39000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.4872</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>58000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.4872</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11368,10 +11349,10 @@
         <v>41000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.5122</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>62000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.5122</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11705,7 +11686,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11784,10 +11765,10 @@
         <v>12206</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.0202</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>73483.39</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.0202</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.73</v>
@@ -11806,10 +11787,10 @@
         <v>11569</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.8655</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>67860.55</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.8655</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2.62</v>
@@ -11828,10 +11809,10 @@
         <v>12019</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.5569</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>66789.09</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.5569</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11848,10 +11829,10 @@
         <v>9820</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>80127.85000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8.16</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11868,10 +11849,10 @@
         <v>18655</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.9862</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>130327.73</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.9862</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>25.48</v>
@@ -11890,10 +11871,10 @@
         <v>25335</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.3857</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>111111.35</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4.3857</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11910,10 +11891,10 @@
         <v>15209</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.3083</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>50316</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.3083</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -11928,10 +11909,10 @@
         <v>20370</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.6378</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>53732</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.6378</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -11946,10 +11927,10 @@
         <v>33921</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.1416</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>72647.03999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.1416</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>8.85</v>
@@ -11968,10 +11949,10 @@
         <v>51047</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.6414</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>83786.5</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.6414</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -11986,10 +11967,10 @@
         <v>50865</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.5778</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>80255.89999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.5778</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12008,10 +11989,10 @@
         <v>48128</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.4012</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>67434.2</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.4012</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12030,10 +12011,10 @@
         <v>48045</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.2328</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>59227.6</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.2328</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12052,10 +12033,10 @@
         <v>46581</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.1242</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>52366.3</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.1242</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12074,10 +12055,10 @@
         <v>41265</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.4258</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>58836.1</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.4258</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12096,10 +12077,10 @@
         <v>38711</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.4729</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>57018.6</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.4729</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12118,10 +12099,10 @@
         <v>44700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.8578</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>83045.2</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.8578</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12140,10 +12121,10 @@
         <v>37160</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.5718</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>58409.7</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.5718</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12162,10 +12143,10 @@
         <v>44804</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.9534</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>87522</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.9534</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12184,10 +12165,10 @@
         <v>43094</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.8742</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>80769</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.8742</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12206,10 +12187,10 @@
         <v>42606</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.7791</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>75799.5</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.7791</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12228,10 +12209,10 @@
         <v>42730</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.8241</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>77945</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.8241</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12250,10 +12231,10 @@
         <v>42596</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.6722</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>71228</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.6722</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12272,10 +12253,10 @@
         <v>19786</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>57201.3</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.891</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -12294,10 +12275,10 @@
         <v>38784</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.8074</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>70100</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.8074</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12316,10 +12297,10 @@
         <v>39171</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2.0054</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>78555</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2.0054</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12338,10 +12319,10 @@
         <v>37861</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.9226</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>72789.89999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.9226</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12360,10 +12341,10 @@
         <v>37015</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>76396.39999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.064</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12382,10 +12363,10 @@
         <v>33447</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.0775</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>69485.89999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.0775</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -12404,10 +12385,10 @@
         <v>34804</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.7042</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>94116.10000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.7042</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12426,10 +12407,10 @@
         <v>33596</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.0974</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>70465.89999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.0974</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12448,10 +12429,10 @@
         <v>34737</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.1872</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>75977.5</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.1872</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12470,10 +12451,10 @@
         <v>35985</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.2793</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>82019</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.2793</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12492,10 +12473,10 @@
         <v>27549</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.8217</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>77734</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.8217</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12514,10 +12495,10 @@
         <v>26955</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>53101</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.97</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12536,10 +12517,10 @@
         <v>26524</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.9021</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>50450</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.9021</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12558,10 +12539,10 @@
         <v>25062</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.3163</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>58052</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.3163</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12580,10 +12561,10 @@
         <v>23964</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.0906</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>74063</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.0906</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12602,10 +12583,10 @@
         <v>23107</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.9424</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>44882</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.9424</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12624,10 +12605,10 @@
         <v>21840</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.0889</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>45622</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.0889</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12646,10 +12627,10 @@
         <v>21134</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.9902</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>42060</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.9902</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12668,10 +12649,10 @@
         <v>10000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.294</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22940</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.294</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12690,10 +12671,10 @@
         <v>10000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>21000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.1</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12712,10 +12693,10 @@
         <v>8000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12734,10 +12715,10 @@
         <v>8000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12756,10 +12737,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12778,10 +12759,10 @@
         <v>8000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12800,10 +12781,10 @@
         <v>8000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>25</v>
@@ -12822,10 +12803,10 @@
         <v>8000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12844,10 +12825,10 @@
         <v>8000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12866,10 +12847,10 @@
         <v>8000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12888,10 +12869,10 @@
         <v>8000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12910,10 +12891,10 @@
         <v>8000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12932,10 +12913,10 @@
         <v>7000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12954,10 +12935,10 @@
         <v>7000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12976,10 +12957,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12998,10 +12979,10 @@
         <v>7000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13019,10 +13000,10 @@
         <v>7000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13040,10 +13021,10 @@
         <v>5500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13061,10 +13042,10 @@
         <v>5500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13082,10 +13063,10 @@
         <v>5500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13103,10 +13084,10 @@
         <v>5500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13124,10 +13105,10 @@
         <v>5500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Higos.xlsx
+++ b/Resultados/Mercado mundial - Higos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Marruecos" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argelia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Türkiye" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Egypt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Morocco" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Algeria" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Iran (Islamic Republic of)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +761,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egipto'!$B$12:$B$74</f>
+              <f>'Egypt'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egipto'!$C$12:$C$74</f>
+              <f>'Egypt'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Marruecos'!$B$12:$B$74</f>
+              <f>'Morocco'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Marruecos'!$C$12:$C$74</f>
+              <f>'Morocco'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Argelia'!$B$12:$B$74</f>
+              <f>'Algeria'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Argelia'!$C$12:$C$74</f>
+              <f>'Algeria'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
+              <f>'Iran (Islamic Republic of)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
+              <f>'Iran (Islamic Republic of)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>299768</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1304848.57</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4.3529</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1304848.57</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>97209.36</v>
@@ -2160,10 +2161,10 @@
         <v>299290</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1293092.29</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.3205</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1293092.29</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>88181.75999999999</v>
@@ -2182,10 +2183,10 @@
         <v>293861</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1321976.01</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4.498600000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1321976.01</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>89756.73</v>
@@ -2204,10 +2205,10 @@
         <v>287279</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1394187.92</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4.8531</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1394187.92</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>90368.61</v>
@@ -2226,10 +2227,10 @@
         <v>287056</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1325376.16</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4.617100000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1325376.16</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>72445.83</v>
@@ -2248,10 +2249,10 @@
         <v>290451</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1239791.48</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.2685</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1239791.48</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>63553.35</v>
@@ -2270,10 +2271,10 @@
         <v>277623</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1175233.77</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4.2332</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1175233.77</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>64700.64</v>
@@ -2292,10 +2293,10 @@
         <v>277830</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1077869.56</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3.8796</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1077869.56</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>61479.31</v>
@@ -2314,10 +2315,10 @@
         <v>294387</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1169130.23</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3.9714</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1169130.23</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>52868.72</v>
@@ -2336,10 +2337,10 @@
         <v>312022</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1150513.57</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3.6873</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1150513.57</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>61610.9</v>
@@ -2358,10 +2359,10 @@
         <v>314795</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1132330.27</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3.597</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1132330.27</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>53420</v>
@@ -2380,10 +2381,10 @@
         <v>307205</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1057517.8</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3.4424</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1057517.8</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>43873</v>
@@ -2402,10 +2403,10 @@
         <v>309166</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1066508.2</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3.4496</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1066508.2</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>38667</v>
@@ -2424,10 +2425,10 @@
         <v>308199</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1065430.51</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3.457</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1065430.51</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>36004</v>
@@ -2446,10 +2447,10 @@
         <v>301887</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1142611.73</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3.7849</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1142611.73</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>33696</v>
@@ -2468,10 +2469,10 @@
         <v>294345</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1055223.2</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3.585</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1055223.2</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>29291</v>
@@ -2490,10 +2491,10 @@
         <v>351270</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1022165.86</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.9099</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1022165.86</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>27052</v>
@@ -2512,10 +2513,10 @@
         <v>342391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1181996.94</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3.4522</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1181996.94</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>29155</v>
@@ -2534,10 +2535,10 @@
         <v>312822</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1090790.81</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3.4869</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1090790.81</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>29838</v>
@@ -2556,10 +2557,10 @@
         <v>306011</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1015397.24</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3.3182</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1015397.24</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>32520</v>
@@ -2578,10 +2579,10 @@
         <v>304298</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>993106.11</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3.2636</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>993106.11</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>32237</v>
@@ -2600,10 +2601,10 @@
         <v>299170</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1027594.41</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3.4348</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1027594.41</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>30693</v>
@@ -2622,10 +2623,10 @@
         <v>302577</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>927503.99</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3.0654</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>927503.99</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>30058.9</v>
@@ -2644,10 +2645,10 @@
         <v>277903</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>997044.49</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3.5877</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>997044.49</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>28206.21</v>
@@ -2666,10 +2667,10 @@
         <v>304484</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1102137.71</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.6197</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1102137.71</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25999.51</v>
@@ -2688,10 +2689,10 @@
         <v>308450</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1061109.29</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.4401</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1061109.29</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>20854.97</v>
@@ -2710,10 +2711,10 @@
         <v>300818</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1039951.77</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.4571</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1039951.77</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>25114.81</v>
@@ -2732,10 +2733,10 @@
         <v>299509</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1056463.57</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.5273</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1056463.57</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>19841</v>
@@ -2754,10 +2755,10 @@
         <v>290161</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1116953.29</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.8494</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1116953.29</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18137</v>
@@ -2776,10 +2777,10 @@
         <v>300761</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1062810.21</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3.5337</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1062810.21</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>17092</v>
@@ -2798,10 +2799,10 @@
         <v>300081</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1043920.37</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.4788</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1043920.37</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>15288</v>
@@ -2820,10 +2821,10 @@
         <v>328785</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1077047.1</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.2758</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1077047.1</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11460</v>
@@ -2842,10 +2843,10 @@
         <v>336531</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1015528.66</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.0176</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1015528.66</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9994</v>
@@ -2864,10 +2865,10 @@
         <v>402583</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1080449</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.6838</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1080449</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>9299</v>
@@ -2886,10 +2887,10 @@
         <v>395274</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>982412</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.4854</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>982412</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>9912</v>
@@ -2908,10 +2909,10 @@
         <v>387935</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1026840</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.6469</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1026840</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>8099</v>
@@ -2930,10 +2931,10 @@
         <v>390058</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1050224</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.6925</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1050224</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4548</v>
@@ -2952,10 +2953,10 @@
         <v>387433</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1089094</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.8111</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1089094</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4039</v>
@@ -2974,10 +2975,10 @@
         <v>380024</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1018362</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.6797</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1018362</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3695</v>
@@ -2996,10 +2997,10 @@
         <v>285536</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>959221</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.3594</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>959221</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>12826</v>
@@ -3018,10 +3019,10 @@
         <v>293594</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>985327</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.3561</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>985327</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>10205</v>
@@ -3040,10 +3041,10 @@
         <v>262250</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>938925</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.5803</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>938925</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3052</v>
@@ -3062,10 +3063,10 @@
         <v>290607</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>961590</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.3089</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>961590</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3208</v>
@@ -3084,10 +3085,10 @@
         <v>302348</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>928805</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.072</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>928805</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3637</v>
@@ -3106,10 +3107,10 @@
         <v>304274</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>934222</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.0703</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>934222</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2063</v>
@@ -3128,10 +3129,10 @@
         <v>301529</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>860717</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.8545</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>860717</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2868</v>
@@ -3150,10 +3151,10 @@
         <v>306319</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>889991</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.9054</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>889991</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2968</v>
@@ -3172,10 +3173,10 @@
         <v>315447</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>976656</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3.0961</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>976656</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1928</v>
@@ -3194,10 +3195,10 @@
         <v>326953</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1027001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.1411</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1027001</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1471</v>
@@ -3216,10 +3217,10 @@
         <v>320478</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1000552</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.1221</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1000552</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>933</v>
@@ -3238,10 +3239,10 @@
         <v>319074</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>958040</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3.0026</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>958040</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1366</v>
@@ -3260,10 +3261,10 @@
         <v>412758</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1050334</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.5447</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1050334</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>998</v>
@@ -3282,10 +3283,10 @@
         <v>420933</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1153694</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.7408</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1153694</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>626</v>
@@ -3304,10 +3305,10 @@
         <v>427521</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1173936</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.7459</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1173936</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>563</v>
@@ -3326,10 +3327,10 @@
         <v>424238</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1190766</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.8068</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1190766</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>459</v>
@@ -3348,10 +3349,10 @@
         <v>451298</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1242882</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.754</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1242882</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>413</v>
@@ -3370,10 +3371,10 @@
         <v>460404</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1236798</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.6863</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1236798</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>465</v>
@@ -3391,10 +3392,10 @@
         <v>469765</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1269547</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.7025</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1269547</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>552</v>
@@ -3412,10 +3413,10 @@
         <v>575183</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1506049</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.6184</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1506049</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>326</v>
@@ -3433,10 +3434,10 @@
         <v>592176</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1597659</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.6979</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1597659</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>351</v>
@@ -3454,10 +3455,10 @@
         <v>605163</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1530193</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.5286</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1530193</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>327</v>
@@ -3475,10 +3476,10 @@
         <v>619544</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1539143</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.4843</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1539143</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>222</v>
@@ -3496,10 +3497,10 @@
         <v>622157</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1572296</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.5272</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1572296</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>160</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>República Árabe Siria</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>249476.21</v>
+        <v>12489.34</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.1911916951405326</v>
+        <v>0.009571486138042823</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>236986.8699999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1816202090024897</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>1304848.57</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4225,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4295,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4309,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4323,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4337,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4661,7 +4671,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4685,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4699,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Suiza</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4755,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4783,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>22102.41000000002</v>
+        <v>6</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2273691545752386</v>
+        <v>6.172245141825849e-05</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>22096.41000000002</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2273074321238203</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>97209.36</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4829,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>57459</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>356000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.1957</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>356000</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="inlineStr"/>
@@ -5029,10 +5048,10 @@
         <v>57247</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.113899999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -5047,10 +5066,10 @@
         <v>54698</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.8503</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>320000</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -5065,10 +5084,10 @@
         <v>53694</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.9597</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>320000</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -5083,10 +5102,10 @@
         <v>52116</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.948300000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>310000</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -5101,10 +5120,10 @@
         <v>51389</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>306499</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.964300000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>306499</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -5119,10 +5138,10 @@
         <v>50330</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>305689</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.0737</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>305689</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -5137,10 +5156,10 @@
         <v>49987</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>305450</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.110600000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>305450</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -5155,10 +5174,10 @@
         <v>49718</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>300600</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.0461</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>300600</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -5173,10 +5192,10 @@
         <v>49464</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>300282</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.0707</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>300282</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -5191,10 +5210,10 @@
         <v>49401</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>298914</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.050800000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>298914</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5213,10 +5232,10 @@
         <v>49175</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>275002</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.5923</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>275002</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5235,10 +5254,10 @@
         <v>48530</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>260508</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.368</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>260508</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5257,10 +5276,10 @@
         <v>47857</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>254838</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.325</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>254838</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5279,10 +5298,10 @@
         <v>47662</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>244351</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.1267</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>244351</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5301,10 +5320,10 @@
         <v>47449</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>205067</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.321800000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>205067</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5323,10 +5342,10 @@
         <v>51018</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>210152</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4.1192</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>210152</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5345,10 +5364,10 @@
         <v>48391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>290151</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.996</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>290151</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5367,10 +5386,10 @@
         <v>49000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>285000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.8163</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>285000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5389,10 +5408,10 @@
         <v>50500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.4455</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5411,10 +5430,10 @@
         <v>51300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.4581</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5433,10 +5452,10 @@
         <v>50200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.9801</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5455,10 +5474,10 @@
         <v>50600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.6443</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>235000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5477,10 +5496,10 @@
         <v>48300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.9689</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5499,10 +5518,10 @@
         <v>47148</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.8327</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>12</v>
@@ -5521,10 +5540,10 @@
         <v>47026</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.4225</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>255000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5543,10 +5562,10 @@
         <v>46502</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>243000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5.2256</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>243000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>45</v>
@@ -5565,10 +5584,10 @@
         <v>48456</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.9848</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5587,10 +5606,10 @@
         <v>48993</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6.1233</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5609,10 +5628,10 @@
         <v>48967</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>279000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5.6977</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>279000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>20</v>
@@ -5631,10 +5650,10 @@
         <v>48827</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.5297</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5653,10 +5672,10 @@
         <v>59875</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4.1754</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5675,10 +5694,10 @@
         <v>60406</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>314000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.1982</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>314000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5697,10 +5716,10 @@
         <v>60338</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.972</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5719,10 +5738,10 @@
         <v>57725</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>279000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>4.8333</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>279000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5741,10 +5760,10 @@
         <v>57188</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.1202</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5763,10 +5782,10 @@
         <v>56188</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>355000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.3181</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>355000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>50</v>
@@ -5785,10 +5804,10 @@
         <v>54250</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.8203</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>370000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5807,10 +5826,10 @@
         <v>50750</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.6995</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5829,10 +5848,10 @@
         <v>46875</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.04</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>330000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5851,10 +5870,10 @@
         <v>44438</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7.4261</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>330000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5873,10 +5892,10 @@
         <v>40000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5895,10 +5914,10 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5917,10 +5936,10 @@
         <v>36875</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.5593</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>205000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5939,10 +5958,10 @@
         <v>35625</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.614</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5961,10 +5980,10 @@
         <v>35000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>185000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.285699999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>185000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -5983,10 +6002,10 @@
         <v>34375</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.0909</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6005,10 +6024,10 @@
         <v>36875</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.0983</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>188000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6027,10 +6046,10 @@
         <v>36250</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.8276</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6049,10 +6068,10 @@
         <v>36875</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>156350</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.24</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>156350</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6071,10 +6090,10 @@
         <v>36875</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.1525</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>190000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6093,10 +6112,10 @@
         <v>36794</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>216000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.8705</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>216000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6115,10 +6134,10 @@
         <v>37225</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.2384</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>195000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6137,10 +6156,10 @@
         <v>38206</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>214000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.6012</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>214000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6159,10 +6178,10 @@
         <v>36206</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.9382</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6181,10 +6200,10 @@
         <v>34981</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6.146199999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6203,10 +6222,10 @@
         <v>41206</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.630199999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>232000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6224,10 +6243,10 @@
         <v>41250</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5.2121</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6245,10 +6264,10 @@
         <v>40938</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>210000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.1297</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>210000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6266,10 +6285,10 @@
         <v>40813</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>206000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.0474</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>206000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6287,10 +6306,10 @@
         <v>40694</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>208190</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.116</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>208190</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6308,10 +6327,10 @@
         <v>40525</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>210040</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.183</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>210040</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6329,10 +6348,10 @@
         <v>41619</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>203700</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.894399999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>203700</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6668,7 +6687,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6747,10 +6766,10 @@
         <v>28667</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>193057.96</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.7345</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>193057.96</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -6767,10 +6786,10 @@
         <v>30080</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>206626</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.8693</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>206626</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6787,10 +6806,10 @@
         <v>29713</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>211438</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7.1159</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>211438</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6807,10 +6826,10 @@
         <v>35750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>299450</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8.376200000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>299450</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6827,10 +6846,10 @@
         <v>26931</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>215450</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>8</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>215450</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6847,10 +6866,10 @@
         <v>29029</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>221369</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.6258</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>221369</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6867,10 +6886,10 @@
         <v>27820</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>194202</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.980600000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>194202</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>53.52</v>
@@ -6889,10 +6908,10 @@
         <v>27779</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>183794</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.6163</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>183794</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>94.09</v>
@@ -6911,10 +6930,10 @@
         <v>27881</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>172474</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.186100000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>172474</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>15</v>
@@ -6933,10 +6952,10 @@
         <v>28501</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>176105</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.1789</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>176105</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6953,10 +6972,10 @@
         <v>28884</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>176595</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.113899999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>176595</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>25</v>
@@ -6975,10 +6994,10 @@
         <v>28716</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>171062</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.957</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>171062</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1000</v>
@@ -6997,10 +7016,10 @@
         <v>28479</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>165483</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.8107</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>165483</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>33</v>
@@ -7019,10 +7038,10 @@
         <v>31773</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>184972</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.8217</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>184972</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7041,10 +7060,10 @@
         <v>31960</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>286682</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.970000000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>286682</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7063,10 +7082,10 @@
         <v>32818</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>304110</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.2666</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>304110</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7085,10 +7104,10 @@
         <v>76258</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>262307</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3.4397</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>262307</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>304</v>
@@ -7107,10 +7126,10 @@
         <v>73320</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>295510</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4.0304</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>295510</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>393</v>
@@ -7129,10 +7148,10 @@
         <v>28580</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>192250</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.7267</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>192250</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>285</v>
@@ -7151,10 +7170,10 @@
         <v>27521</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>160124</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.8182</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>160124</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>408</v>
@@ -7173,10 +7192,10 @@
         <v>25550</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>135834</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.3164</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>135834</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>220</v>
@@ -7195,10 +7214,10 @@
         <v>26444</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>194631</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7.3601</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>194631</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>363</v>
@@ -7217,10 +7236,10 @@
         <v>29105</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>150200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5.160600000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>150200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>400</v>
@@ -7239,10 +7258,10 @@
         <v>22200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>187698</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.4549</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>187698</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1088.61</v>
@@ -7261,10 +7280,10 @@
         <v>25316</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>203005</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.018800000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>203005</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>452</v>
@@ -7283,10 +7302,10 @@
         <v>23789</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>220849</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.283700000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>220849</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>120</v>
@@ -7305,10 +7324,10 @@
         <v>24453</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>216589</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.8574</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>216589</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>174</v>
@@ -7327,10 +7346,10 @@
         <v>22853</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>202697</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.8696</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>202697</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -7349,10 +7368,10 @@
         <v>18187</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>236915</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.0266</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>236915</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18</v>
@@ -7371,10 +7390,10 @@
         <v>18100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>184000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.1657</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>184000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>36</v>
@@ -7393,10 +7412,10 @@
         <v>18000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>160000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7415,10 +7434,10 @@
         <v>17595</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>153373</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.716899999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>153373</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7437,10 +7456,10 @@
         <v>13635</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>71083</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.2133</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>71083</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7459,10 +7478,10 @@
         <v>13361</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>81485</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.0987</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>81485</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7481,10 +7500,10 @@
         <v>13862</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.8134</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>39000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7503,10 +7522,10 @@
         <v>10922</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>31000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.8383</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>31000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7525,10 +7544,10 @@
         <v>8820</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.8345</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>25000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7547,10 +7566,10 @@
         <v>8400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.8571</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>24000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7569,10 +7588,10 @@
         <v>1700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5.8824</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7591,10 +7610,10 @@
         <v>1680</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5.3571</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7613,10 +7632,10 @@
         <v>1680</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.3571</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1482</v>
@@ -7635,10 +7654,10 @@
         <v>2065</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18757</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9.083299999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18757</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>851</v>
@@ -7657,10 +7676,10 @@
         <v>2243</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10737</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.786899999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10737</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1055</v>
@@ -7679,10 +7698,10 @@
         <v>3572</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.0795</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1958</v>
@@ -7701,10 +7720,10 @@
         <v>2998</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>16209</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.4066</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>16209</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>758</v>
@@ -7723,10 +7742,10 @@
         <v>3052</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13764</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.5098</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13764</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1327</v>
@@ -7745,10 +7764,10 @@
         <v>3060</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14146</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.6229</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14146</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1735</v>
@@ -7767,10 +7786,10 @@
         <v>3072</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14258</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4.6413</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14258</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>317</v>
@@ -7789,10 +7808,10 @@
         <v>2941</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5.1003</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7811,10 +7830,10 @@
         <v>2941</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15800</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.3723</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15800</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7833,10 +7852,10 @@
         <v>2940</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.7619</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7855,10 +7874,10 @@
         <v>2940</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4.7619</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7877,10 +7896,10 @@
         <v>2940</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15106</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.138100000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15106</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7899,10 +7918,10 @@
         <v>2941</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.7603</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7921,10 +7940,10 @@
         <v>4621</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.3804</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7943,10 +7962,10 @@
         <v>4261</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.3469</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7965,10 +7984,10 @@
         <v>840</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.381</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7986,10 +8005,10 @@
         <v>840</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.5714</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8007,10 +8026,10 @@
         <v>843</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4296</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.096100000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4296</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8028,10 +8047,10 @@
         <v>843</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1848</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.1922</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1848</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8049,10 +8068,10 @@
         <v>779</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6179</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.932</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6179</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8070,10 +8089,10 @@
         <v>776</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4723</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.0863</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4723</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8091,10 +8110,10 @@
         <v>574</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5358</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.3345</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5358</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8430,7 +8449,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8509,10 +8528,10 @@
         <v>69737</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>119166.59</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.7088</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>119166.59</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.67</v>
@@ -8531,10 +8550,10 @@
         <v>66532</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>109619.8</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.6476</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>109619.8</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8551,10 +8570,10 @@
         <v>64431</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>144153</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.2373</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>144153</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.51</v>
@@ -8573,10 +8592,10 @@
         <v>63131</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>144246.05</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.2849</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>144246.05</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15.52</v>
@@ -8595,10 +8614,10 @@
         <v>62969</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>153471.57</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.4373</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>153471.57</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.19</v>
@@ -8617,10 +8636,10 @@
         <v>61498</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>128380.05</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.0876</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>128380.05</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.06</v>
@@ -8639,10 +8658,10 @@
         <v>60533</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>137933.82</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.2786</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>137933.82</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0</v>
@@ -8661,10 +8680,10 @@
         <v>58306</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>59881.15</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.027</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>59881.15</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.04</v>
@@ -8683,10 +8702,10 @@
         <v>55260</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>150110.82</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.7165</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>150110.82</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8703,10 +8722,10 @@
         <v>54771</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>126553.56</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.3106</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>126553.56</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.01</v>
@@ -8725,10 +8744,10 @@
         <v>55020</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>112537.36</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.0454</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>112537.36</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8745,10 +8764,10 @@
         <v>51020</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>102694</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.0128</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>102694</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8765,10 +8784,10 @@
         <v>51449</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>114770</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.2308</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>114770</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8785,10 +8804,10 @@
         <v>49682</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>109735</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.2087</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>109735</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8805,10 +8824,10 @@
         <v>47600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>109200</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.2941</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>109200</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8825,10 +8844,10 @@
         <v>42381</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>69723</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.6451</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>69723</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8845,10 +8864,10 @@
         <v>44441</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>61606</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.3862</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>61606</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8865,10 +8884,10 @@
         <v>44000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.75</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>77000</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8885,10 +8904,10 @@
         <v>43800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>82600</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.8858</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>82600</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8905,10 +8924,10 @@
         <v>42700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.4052</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8925,10 +8944,10 @@
         <v>42800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5654</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>67000</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8945,10 +8964,10 @@
         <v>43200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>97500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.2569</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>97500</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -8965,10 +8984,10 @@
         <v>43400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.7419</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>75600</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -8985,10 +9004,10 @@
         <v>43900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.5581</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>68400</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -9005,10 +9024,10 @@
         <v>44600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>82000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.8386</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>82000</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -9025,10 +9044,10 @@
         <v>42000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>55700</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.3262</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>55700</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -9045,10 +9064,10 @@
         <v>42000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>51200</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.219</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>51200</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -9065,10 +9084,10 @@
         <v>44100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>40400</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.9161</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>40400</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -9085,10 +9104,10 @@
         <v>42000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.5952</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>67000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -9105,10 +9124,10 @@
         <v>40000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.625</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>65000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -9123,10 +9142,10 @@
         <v>40000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.25</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9143,10 +9162,10 @@
         <v>40000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.125</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>45000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9163,10 +9182,10 @@
         <v>40000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9183,10 +9202,10 @@
         <v>39000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.4923</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>58200</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9203,10 +9222,10 @@
         <v>38000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.4974</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>56900</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9223,10 +9242,10 @@
         <v>30000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.85</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>55500</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9243,10 +9262,10 @@
         <v>30000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>54300</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.81</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>54300</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9263,10 +9282,10 @@
         <v>29500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.2373</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>66000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9283,10 +9302,10 @@
         <v>32000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.25</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>72000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9300,10 +9319,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
+      <c r="D51" s="29" t="n">
         <v>70000</v>
       </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
         <v>0</v>
@@ -9316,10 +9335,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
+      <c r="D52" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
         <v>0</v>
@@ -9332,10 +9351,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
+      <c r="D53" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
         <v>0</v>
@@ -9348,10 +9367,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>66000</v>
       </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
         <v>4</v>
@@ -9364,10 +9383,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
+      <c r="D55" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
         <v>0</v>
@@ -9380,10 +9399,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>2</v>
@@ -9396,10 +9415,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>9</v>
@@ -9412,10 +9431,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>68000</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>6</v>
@@ -9428,10 +9447,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>69300</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>11</v>
@@ -9444,10 +9463,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>69000</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>11</v>
@@ -9460,10 +9479,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>5</v>
@@ -9476,10 +9495,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
+      <c r="D62" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>10</v>
@@ -9492,10 +9511,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>10</v>
@@ -9508,10 +9527,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
+      <c r="D64" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>3</v>
@@ -9524,10 +9543,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
+      <c r="D65" s="29" t="n">
         <v>67000</v>
       </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>15</v>
@@ -9540,10 +9559,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
+      <c r="D66" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>67</v>
@@ -9556,10 +9575,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>4</v>
@@ -9572,10 +9591,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
+      <c r="D68" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>6</v>
@@ -9587,10 +9606,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
+      <c r="D69" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>0</v>
@@ -9602,10 +9621,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
+      <c r="D70" s="29" t="n">
         <v>79000</v>
       </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>3</v>
@@ -9617,10 +9636,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>96000</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>4</v>
@@ -9632,10 +9651,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>61000</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>3</v>
@@ -9647,10 +9666,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>66000</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>1</v>
@@ -9662,10 +9681,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>77000</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>13</v>
@@ -9998,7 +10017,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10077,10 +10096,10 @@
         <v>38374</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>116183.18</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.0277</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>116183.18</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.23</v>
@@ -10099,10 +10118,10 @@
         <v>40136</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>115170.35</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.8695</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>115170.35</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10119,10 +10138,10 @@
         <v>39065</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>107266</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.7459</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>107266</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10139,10 +10158,10 @@
         <v>39026</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>116143</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.976</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>116143</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10159,10 +10178,10 @@
         <v>39438</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>114092</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.8929</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>114092</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>52</v>
@@ -10181,10 +10200,10 @@
         <v>39356</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>109213.6</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.775</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>109213.6</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -10201,10 +10220,10 @@
         <v>40932</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>128684</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.1438</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>128684</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10221,10 +10240,10 @@
         <v>42764</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>120348</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.8142</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>120348</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10241,10 +10260,10 @@
         <v>43130</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>139137</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3.226</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>139137</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10261,10 +10280,10 @@
         <v>44395</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>128620</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.8972</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>128620</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10281,10 +10300,10 @@
         <v>44608</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>117100</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.6251</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>117100</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -10303,10 +10322,10 @@
         <v>45125</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>110058</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.439</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>110058</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10325,10 +10344,10 @@
         <v>46331</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>120187</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.5941</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>120187</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10347,10 +10366,10 @@
         <v>46921</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>123763</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.6377</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>123763</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10369,10 +10388,10 @@
         <v>46935</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>83801</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.7855</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>83801</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10391,10 +10410,10 @@
         <v>47273</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>78735</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.6655</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>78735</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10413,10 +10432,10 @@
         <v>48790</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>63883</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.3093</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>63883</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10435,10 +10454,10 @@
         <v>49180</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>91927</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.8692</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>91927</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10457,10 +10476,10 @@
         <v>46592</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>69799</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.4981</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>69799</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10479,10 +10498,10 @@
         <v>45920</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>64940</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.4142</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>64940</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10501,10 +10520,10 @@
         <v>44030</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>63266</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.4369</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>63266</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10523,10 +10542,10 @@
         <v>39830</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>60694</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.5238</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>60694</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>15</v>
@@ -10545,10 +10564,10 @@
         <v>38070</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>40864</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.0734</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>40864</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10567,10 +10586,10 @@
         <v>36000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>54326</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.5091</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>54326</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10589,10 +10608,10 @@
         <v>35730</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>50609</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.4164</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>50609</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10611,10 +10630,10 @@
         <v>35390</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>42209</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.1927</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>42209</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10633,10 +10652,10 @@
         <v>35980</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>46747</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.2992</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>46747</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>75</v>
@@ -10655,10 +10674,10 @@
         <v>36760</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.5506</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>57000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10675,10 +10694,10 @@
         <v>40110</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>60008</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.4961</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>60008</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10695,10 +10714,10 @@
         <v>41900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>45732</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.0915</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>45732</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10715,10 +10734,10 @@
         <v>42030</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>85215</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.0275</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>85215</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10735,10 +10754,10 @@
         <v>41200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>86424</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.0977</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>86424</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10755,10 +10774,10 @@
         <v>44370</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>41414</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.9334</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>41414</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10775,10 +10794,10 @@
         <v>44700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>58390</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.3063</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>58390</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10795,10 +10814,10 @@
         <v>36000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>70320</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.9533</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>70320</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10815,10 +10834,10 @@
         <v>36000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>48200</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.3389</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>48200</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10835,10 +10854,10 @@
         <v>38000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.5342</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>58300</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10855,10 +10874,10 @@
         <v>38000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>71708</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.8871</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>71708</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10875,10 +10894,10 @@
         <v>38000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>59164</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.5569</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>59164</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10895,10 +10914,10 @@
         <v>18000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>27700</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.5389</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>27700</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10915,10 +10934,10 @@
         <v>30000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>45049</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.5016</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>45049</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10935,10 +10954,10 @@
         <v>19000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>28508</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.5004</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>28508</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -10955,10 +10974,10 @@
         <v>47000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>70589</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.5019</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>70589</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -10975,10 +10994,10 @@
         <v>46000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>69410</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.5089</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>69410</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -10995,10 +11014,10 @@
         <v>51000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>86596</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.698</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>86596</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11015,10 +11034,10 @@
         <v>46000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>69338</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.5073</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>69338</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11035,10 +11054,10 @@
         <v>51000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>76840</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.5067</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>76840</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11055,10 +11074,10 @@
         <v>53000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>79630</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.5025</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>79630</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11075,10 +11094,10 @@
         <v>63000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>95385</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.514</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>95385</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11095,10 +11114,10 @@
         <v>50000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>74902</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.498</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>74902</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11115,10 +11134,10 @@
         <v>48000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>71571</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.4911</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>71571</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11135,10 +11154,10 @@
         <v>41000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>62360</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.521</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>62360</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11155,10 +11174,10 @@
         <v>34000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>51136</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.504</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>51136</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11175,10 +11194,10 @@
         <v>33000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>50411</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.5276</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>50411</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11195,10 +11214,10 @@
         <v>14000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>21331</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.5236</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>21331</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11215,10 +11234,10 @@
         <v>29000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.5418</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>44713</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11235,10 +11254,10 @@
         <v>29000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.524</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>44195</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11254,10 +11273,10 @@
         <v>31000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.4861</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>46069</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11273,10 +11292,10 @@
         <v>29000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.4828</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>43000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11292,10 +11311,10 @@
         <v>39000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.4872</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>58000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11311,10 +11330,10 @@
         <v>39000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.5128</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>59000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11330,10 +11349,10 @@
         <v>39000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.4872</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>58000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11349,10 +11368,10 @@
         <v>41000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.5122</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>62000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11686,7 +11705,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11765,10 +11784,10 @@
         <v>12206</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>73483.39</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.0202</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>73483.39</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.73</v>
@@ -11787,10 +11806,10 @@
         <v>11569</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>67860.55</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.8655</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>67860.55</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2.62</v>
@@ -11809,10 +11828,10 @@
         <v>12019</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>66789.09</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.5569</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>66789.09</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11829,10 +11848,10 @@
         <v>9820</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>80127.85000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8.16</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>80127.85000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11849,10 +11868,10 @@
         <v>18655</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>130327.73</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.9862</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>130327.73</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>25.48</v>
@@ -11871,10 +11890,10 @@
         <v>25335</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>111111.35</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.3857</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>111111.35</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11891,10 +11910,10 @@
         <v>15209</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>50316</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.3083</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>50316</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -11909,10 +11928,10 @@
         <v>20370</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>53732</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.6378</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>53732</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -11927,10 +11946,10 @@
         <v>33921</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>72647.03999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.1416</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>72647.03999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>8.85</v>
@@ -11949,10 +11968,10 @@
         <v>51047</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>83786.5</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.6414</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>83786.5</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -11967,10 +11986,10 @@
         <v>50865</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>80255.89999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.5778</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>80255.89999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -11989,10 +12008,10 @@
         <v>48128</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>67434.2</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.4012</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>67434.2</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12011,10 +12030,10 @@
         <v>48045</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>59227.6</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.2328</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>59227.6</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12033,10 +12052,10 @@
         <v>46581</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>52366.3</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.1242</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>52366.3</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12055,10 +12074,10 @@
         <v>41265</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>58836.1</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.4258</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>58836.1</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12077,10 +12096,10 @@
         <v>38711</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>57018.6</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.4729</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>57018.6</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12099,10 +12118,10 @@
         <v>44700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>83045.2</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.8578</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>83045.2</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12121,10 +12140,10 @@
         <v>37160</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>58409.7</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.5718</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>58409.7</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12143,10 +12162,10 @@
         <v>44804</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>87522</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.9534</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>87522</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12165,10 +12184,10 @@
         <v>43094</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>80769</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.8742</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>80769</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12187,10 +12206,10 @@
         <v>42606</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>75799.5</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.7791</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>75799.5</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12209,10 +12228,10 @@
         <v>42730</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>77945</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.8241</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>77945</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12231,10 +12250,10 @@
         <v>42596</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>71228</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.6722</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>71228</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12253,10 +12272,10 @@
         <v>19786</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>57201.3</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.891</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>57201.3</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -12275,10 +12294,10 @@
         <v>38784</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>70100</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.8074</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>70100</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12297,10 +12316,10 @@
         <v>39171</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>78555</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2.0054</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>78555</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12319,10 +12338,10 @@
         <v>37861</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>72789.89999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.9226</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>72789.89999999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12341,10 +12360,10 @@
         <v>37015</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>76396.39999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.064</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>76396.39999999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12363,10 +12382,10 @@
         <v>33447</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>69485.89999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.0775</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>69485.89999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -12385,10 +12404,10 @@
         <v>34804</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>94116.10000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.7042</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>94116.10000000001</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12407,10 +12426,10 @@
         <v>33596</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>70465.89999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.0974</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>70465.89999999999</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12429,10 +12448,10 @@
         <v>34737</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>75977.5</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.1872</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>75977.5</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12451,10 +12470,10 @@
         <v>35985</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>82019</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.2793</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>82019</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12473,10 +12492,10 @@
         <v>27549</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>77734</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.8217</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>77734</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12495,10 +12514,10 @@
         <v>26955</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>53101</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.97</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>53101</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12517,10 +12536,10 @@
         <v>26524</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.9021</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>50450</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12539,10 +12558,10 @@
         <v>25062</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>58052</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.3163</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>58052</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12561,10 +12580,10 @@
         <v>23964</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>74063</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.0906</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>74063</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12583,10 +12602,10 @@
         <v>23107</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>44882</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.9424</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>44882</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12605,10 +12624,10 @@
         <v>21840</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>45622</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.0889</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>45622</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12627,10 +12646,10 @@
         <v>21134</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>42060</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.9902</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>42060</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12649,10 +12668,10 @@
         <v>10000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22940</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.294</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22940</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12671,10 +12690,10 @@
         <v>10000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.1</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>21000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12693,10 +12712,10 @@
         <v>8000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12715,10 +12734,10 @@
         <v>8000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12737,10 +12756,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12759,10 +12778,10 @@
         <v>8000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12781,10 +12800,10 @@
         <v>8000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>25</v>
@@ -12803,10 +12822,10 @@
         <v>8000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12825,10 +12844,10 @@
         <v>8000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12847,10 +12866,10 @@
         <v>8000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12869,10 +12888,10 @@
         <v>8000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12891,10 +12910,10 @@
         <v>8000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12913,10 +12932,10 @@
         <v>7000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12935,10 +12954,10 @@
         <v>7000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12957,10 +12976,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12979,10 +12998,10 @@
         <v>7000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13000,10 +13019,10 @@
         <v>7000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13021,10 +13040,10 @@
         <v>5500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13042,10 +13061,10 @@
         <v>5500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13063,10 +13082,10 @@
         <v>5500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13084,10 +13103,10 @@
         <v>5500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13105,10 +13124,10 @@
         <v>5500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
